--- a/tables/product.xlsx
+++ b/tables/product.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F56"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,25 +441,30 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>SKU_NAME</t>
+          <t>SKU</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>NAME</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PRICE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>STOCK</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>CATEGORY_ID</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>DESCRIPTION</t>
         </is>
@@ -471,19 +476,24 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>AB2619197</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>iPhone 14 PRO</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>1479</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>13</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>256GB - Purple - 6,1' - IOS 16</t>
         </is>
@@ -495,19 +505,24 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>AB4933769</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>iPhone 14</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>799</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>22</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>1</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>128GB - Black - 6,1' - IOS 16</t>
         </is>
@@ -519,19 +534,24 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>AB7798227</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>iPhone 14</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>899</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>23</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>1</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>256GB - Black - 6,1' - IOS 16</t>
         </is>
@@ -543,19 +563,24 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>OP2574962</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>iPhone 13</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>699</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>45</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>1</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>256GB - Purple - 6,1' - IOS 16</t>
         </is>
@@ -567,19 +592,24 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>IR2745395</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>iPhone 13</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>699</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>12</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>1</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>256GB - Black - 6,1' - IOS 16</t>
         </is>
@@ -591,19 +621,24 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>RT7576713</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>iPhone 14 Plus</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>999</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>17</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>1</v>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>256GB - Black - 6,7' - IOS 17</t>
         </is>
@@ -615,19 +650,24 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>OP4831763</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
           <t>iPhone 14 Plus</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>899</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>13</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>1</v>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>128GB - Dark Green - 6,7' - IOS 17</t>
         </is>
@@ -639,19 +679,24 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>RT5064894</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
           <t>iPhone 14 Plus</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>999</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>15</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>256GB - Dark Green - 6,7' - IOS 17</t>
         </is>
@@ -663,19 +708,24 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
+          <t>IR4606637</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>iPhone 14 PRO max</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>1629</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>12</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>1</v>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>512GB - Midnight - 6,7' - IOS 16</t>
         </is>
@@ -687,19 +737,24 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
+          <t>HC1275249</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Samsung Galaxy S22 ULTRA</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>949</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>11</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>1</v>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>256GB - Black - 6.8' - 12GB</t>
         </is>
@@ -711,19 +766,24 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
+          <t>HC4776602</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
           <t>Samsung Galaxy Z Fold 4</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1599</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>16</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>1</v>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>256GB - Black - 7.6' - 12GB</t>
         </is>
@@ -735,19 +795,24 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>IR9509209</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
           <t>Xiaomi 12T PRO</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>789</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>6</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>1</v>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>500GB - Blue - 6.7' - 12GB</t>
         </is>
@@ -759,19 +824,24 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
+          <t>RT9816659</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Nokia 3310</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>59.99</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>4</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>2</v>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t xml:space="preserve">16GB - Blue - 2.4'  - Card slot </t>
         </is>
@@ -783,19 +853,24 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
+          <t>IR8894473</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>SonyEricsson K800</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>94.98999999999999</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>0</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>2</v>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Model of 2008</t>
         </is>
@@ -807,19 +882,24 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
+          <t>OP8890821</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>SonyEricsson W200i</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="D16" t="n">
         <v>89.98999999999999</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>0</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>2</v>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t xml:space="preserve">Model 2005 </t>
         </is>
@@ -831,19 +911,24 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
+          <t>IR6365864</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t xml:space="preserve">Samsung Galaxy Watch 4 </t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="D17" t="n">
         <v>159.99</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>17</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>3</v>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>40mm BT - Gold - autonomy 40h - Exynos W920 -water resistent</t>
         </is>
@@ -855,19 +940,24 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>IR9468141</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>Xiaomi Mi Band 7</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="D18" t="n">
         <v>39.99</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>6</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>3</v>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Amoled - 1,62' - autonomy 14days- water resistant</t>
         </is>
@@ -879,19 +969,24 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>AB7819714</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
           <t>Apple watch 8th Gen</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="D19" t="n">
         <v>599</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>8</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>3</v>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>42mm - Space Gray - GPS</t>
         </is>
@@ -903,19 +998,24 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
+          <t>RT4919273</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
           <t>Apple watch ULTRA</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="D20" t="n">
         <v>1199</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>0</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>3</v>
       </c>
-      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -923,19 +1023,24 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
+          <t>RT4170318</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t xml:space="preserve">Apple watch SE </t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="D21" t="n">
         <v>309.99</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>8</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>3</v>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>40mm - autonomy 18h - water resistent</t>
         </is>
@@ -947,19 +1052,24 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
+          <t>HC3431746</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
           <t>Xiaomi mi body composition 2</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="D22" t="n">
         <v>29.99</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>4</v>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>max weight 100kg - max 16 users</t>
         </is>
@@ -971,19 +1081,24 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>OP1682352</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Braun Series 5 5031s Electric shaver</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>79.98999999999999</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>4</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>5</v>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Number of attachments 3 - autonomy 50m - water proof</t>
         </is>
@@ -995,19 +1110,24 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>AB1373035</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Dyson supersonic hair dryer</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>429.99</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>3</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>6</v>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>16000W - Number of attachments 6 - Vinca blue/rose</t>
         </is>
@@ -1019,19 +1139,24 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>HC3991373</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>BaByliss PRO Titanium Straightener</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>119.99</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>7</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>6</v>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Heat protectiv shield</t>
         </is>
@@ -1043,19 +1168,24 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>AB1558224</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>MacBook Air</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>949</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>10</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>7</v>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>13.3' - Intel i5 -  RAM 8GB - 256GB SSD - Rose Gold</t>
         </is>
@@ -1067,19 +1197,24 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
+          <t>OP6585389</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>MacBook Air</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="D27" t="n">
         <v>949</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>13</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>7</v>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>13.3' - Intel i5 -  RAM 8GB - 256GB SSD - Space Gray</t>
         </is>
@@ -1091,19 +1226,24 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>IR5256826</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>MacBook Pro</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="D28" t="n">
         <v>1149</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>5</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>7</v>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>13.3'  - M2 -  RAM 8GB - 256GB SSD - Space Gray</t>
         </is>
@@ -1115,19 +1255,24 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
+          <t>RT1433242</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>MacBook Pro</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="D29" t="n">
         <v>1599</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>0</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>7</v>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>14 ' - M2 -  RAM 16GB - 512GB SSD - Space Gray</t>
         </is>
@@ -1139,19 +1284,24 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>HC7197295</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>MacBook Pro</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="D30" t="n">
         <v>2099</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>20</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>7</v>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>14' - M1 pro chip - RAM 16GB - 1TB SSD - Rose Gold</t>
         </is>
@@ -1163,19 +1313,24 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>RT6487376</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Lenovo ideapad 3i</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="D31" t="n">
         <v>499.99</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>18</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>7</v>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>15.6' - Intel core i3 - RAM 8GB . 256GB SSD - Platinum Gray</t>
         </is>
@@ -1187,19 +1342,24 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
+          <t>IR9257256</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t xml:space="preserve">ASUS TUF Gaming </t>
         </is>
       </c>
-      <c r="C32" t="n">
+      <c r="D32" t="n">
         <v>599</v>
       </c>
-      <c r="D32" t="n">
+      <c r="E32" t="n">
         <v>20</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>7</v>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>15.6' - NVIDIA GeForce RTX 3050 - RAM 8GB - 512GB - Eclipse Gray</t>
         </is>
@@ -1211,19 +1371,24 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>RT8702153</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>HP Pavilion Touch screen All-in-one</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="D33" t="n">
         <v>1069.99</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>10</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>8</v>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>24' - Intel core i5 - RAM 12GB - 1TB SSD - Sparkling Black</t>
         </is>
@@ -1235,19 +1400,24 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
+          <t>IR1735606</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>iMac</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="D34" t="n">
         <v>1799</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>3</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>8</v>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>27' - 5K display - Intel core i5 -RAM 8GB - 256GB SSD - Silver</t>
         </is>
@@ -1259,19 +1429,24 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
+          <t>OP6243121</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Samsung A700 series monitor</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="D35" t="n">
         <v>269.99</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>18</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>9</v>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>32' - Led 4K UHD - Black</t>
         </is>
@@ -1283,19 +1458,24 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
+          <t>OP5532987</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>LG Ultrafine monitor</t>
         </is>
       </c>
-      <c r="C36" t="n">
+      <c r="D36" t="n">
         <v>596.99</v>
       </c>
-      <c r="D36" t="n">
+      <c r="E36" t="n">
         <v>13</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>9</v>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>43' - 4K UHD - Black</t>
         </is>
@@ -1307,19 +1487,24 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>OP5778681</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Samsung M7 series monitor</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="D37" t="n">
         <v>379.99</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>5</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>9</v>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>43' - Smart Tizen . 4K UHD - White</t>
         </is>
@@ -1331,19 +1516,24 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
+          <t>IR3607381</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>iPad Air 5th Generation</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="D38" t="n">
         <v>749.99</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>11</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>10</v>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>10.9' - M1 - RAM 8GB - 256GB - Battery Life 10h - Space Gray</t>
         </is>
@@ -1355,19 +1545,24 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
+          <t>OP5886228</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t xml:space="preserve">iPad Pro (Latest Model) </t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="D39" t="n">
         <v>799</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>5</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>10</v>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>11' - M2 - RAM 8GB - 128GB - Battery Life 10h - Silver</t>
         </is>
@@ -1379,19 +1574,24 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
+          <t>OP2282929</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Samsung Galaxy Tab s6 Lite</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="D40" t="n">
         <v>269.99</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>4</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>10</v>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>10.4' - Qualcomm Snapdragon 720G (SM7125) - RAM 4GB - 128GB - Oxford Gray</t>
         </is>
@@ -1403,19 +1603,24 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
+          <t>HC9975768</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Samsung Galay Tab s8 Ultra</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="D41" t="n">
         <v>1099.99</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>15</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>10</v>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>14.4' - Qualcomm Snapdragon 8Gen 1 (SM8450) - RAM 16GB - 512GB -Graphite</t>
         </is>
@@ -1427,19 +1632,24 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
+          <t>HC1157887</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Lenovo Yoga Tab 11</t>
         </is>
       </c>
-      <c r="C42" t="n">
+      <c r="D42" t="n">
         <v>349.99</v>
       </c>
-      <c r="D42" t="n">
+      <c r="E42" t="n">
         <v>7</v>
       </c>
-      <c r="E42" t="n">
+      <c r="F42" t="n">
         <v>10</v>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>11'  - MediaTek G90T - RAM 8GB - 256GB - Storm Gray</t>
         </is>
@@ -1451,19 +1661,24 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
+          <t>IR3343776</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Airpods Pro 2nd Gen</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="D43" t="n">
         <v>399</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>4</v>
       </c>
-      <c r="E43" t="n">
+      <c r="F43" t="n">
         <v>11</v>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>wireless - Noise cancelling - Battery Life 8h - Battery Life with charging case 35h -white</t>
         </is>
@@ -1475,19 +1690,24 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
+          <t>HC4735363</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>AirPods 2nd generation</t>
         </is>
       </c>
-      <c r="C44" t="n">
+      <c r="D44" t="n">
         <v>199.99</v>
-      </c>
-      <c r="D44" t="n">
-        <v>11</v>
       </c>
       <c r="E44" t="n">
         <v>11</v>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F44" t="n">
+        <v>11</v>
+      </c>
+      <c r="G44" t="inlineStr">
         <is>
           <t>wireless - Noise cancelling - Battery Life 6h - Battery Life with charging case 30h -white</t>
         </is>
@@ -1499,19 +1719,24 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
+          <t>AB2538858</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t xml:space="preserve">JBLTune 230NC </t>
         </is>
       </c>
-      <c r="C45" t="n">
+      <c r="D45" t="n">
         <v>99.98999999999999</v>
       </c>
-      <c r="D45" t="n">
+      <c r="E45" t="n">
         <v>17</v>
       </c>
-      <c r="E45" t="n">
+      <c r="F45" t="n">
         <v>11</v>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>wireless - Noise cancelling - Battery Life 8h - Battery Life with charging case 24h -black</t>
         </is>
@@ -1523,19 +1748,24 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
+          <t>AB7501718</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Sony Extra bass in-ear Headphones</t>
         </is>
       </c>
-      <c r="C46" t="n">
+      <c r="D46" t="n">
         <v>29.99</v>
       </c>
-      <c r="D46" t="n">
+      <c r="E46" t="n">
         <v>20</v>
       </c>
-      <c r="E46" t="n">
+      <c r="F46" t="n">
         <v>11</v>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>wired - black</t>
         </is>
@@ -1547,19 +1777,24 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
+          <t>IR3344802</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Samsung  HW-B650/ZA soundbar</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="D47" t="n">
         <v>209.99</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>5</v>
       </c>
-      <c r="E47" t="n">
+      <c r="F47" t="n">
         <v>12</v>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>3.1' - Dolby 5.1 - Black</t>
         </is>
@@ -1571,19 +1806,24 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
+          <t>AB5097376</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Sonos Beam (Gen 2)</t>
         </is>
       </c>
-      <c r="C48" t="n">
+      <c r="D48" t="n">
         <v>359.99</v>
       </c>
-      <c r="D48" t="n">
+      <c r="E48" t="n">
         <v>14</v>
       </c>
-      <c r="E48" t="n">
+      <c r="F48" t="n">
         <v>12</v>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>High resolution audio</t>
         </is>
@@ -1595,19 +1835,24 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
+          <t>AB6938822</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Apple HomePod</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="D49" t="n">
         <v>499</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>4</v>
       </c>
-      <c r="E49" t="n">
+      <c r="F49" t="n">
         <v>12</v>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Apple Home Assistant</t>
         </is>
@@ -1619,19 +1864,24 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
+          <t>AB3145927</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>Yandex Alice Station</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="D50" t="n">
         <v>299</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>18</v>
       </c>
-      <c r="E50" t="n">
+      <c r="F50" t="n">
         <v>12</v>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Yandex Home Assistant</t>
         </is>
@@ -1643,19 +1893,24 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
+          <t>AB5098751</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>Apple Pencil Gen 1</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="D51" t="n">
         <v>99</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>12</v>
       </c>
-      <c r="E51" t="n">
+      <c r="F51" t="n">
         <v>13</v>
       </c>
-      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -1663,19 +1918,24 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
+          <t>IR1196436</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>Apple Pencil Gen 2</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="D52" t="n">
         <v>169</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>14</v>
       </c>
-      <c r="E52" t="n">
+      <c r="F52" t="n">
         <v>13</v>
       </c>
-      <c r="F52" t="inlineStr"/>
+      <c r="G52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -1683,19 +1943,24 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
+          <t>IR3305997</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>Smart Folio Cover for iPad Pro</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="D53" t="n">
         <v>199.99</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>2</v>
       </c>
-      <c r="E53" t="n">
+      <c r="F53" t="n">
         <v>13</v>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Apple Oroginal leather cover for iPad Pro 11.1 inch</t>
         </is>
@@ -1707,19 +1972,24 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
+          <t>RT2147225</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>Apple Magic Keyboard</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="D54" t="n">
         <v>299</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>5</v>
       </c>
-      <c r="E54" t="n">
+      <c r="F54" t="n">
         <v>13</v>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>wireless keyboard (ENG)</t>
         </is>
@@ -1731,19 +2001,24 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
+          <t>HC8968084</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>Apple Magic Mouse</t>
         </is>
       </c>
-      <c r="C55" t="n">
+      <c r="D55" t="n">
         <v>149</v>
       </c>
-      <c r="D55" t="n">
+      <c r="E55" t="n">
         <v>8</v>
       </c>
-      <c r="E55" t="n">
+      <c r="F55" t="n">
         <v>13</v>
       </c>
-      <c r="F55" t="inlineStr"/>
+      <c r="G55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -1751,19 +2026,24 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
+          <t>OP2815321</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>Apple Magic Trackpad</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="D56" t="n">
         <v>149</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>3</v>
       </c>
-      <c r="E56" t="n">
+      <c r="F56" t="n">
         <v>13</v>
       </c>
-      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/tables/product.xlsx
+++ b/tables/product.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AB2619197</t>
+          <t>HC5618591</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AB4933769</t>
+          <t>AB1605476</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -534,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AB7798227</t>
+          <t>AB6954965</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OP2574962</t>
+          <t>RT3847497</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -592,7 +592,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>IR2745395</t>
+          <t>AB7586113</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -621,7 +621,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>RT7576713</t>
+          <t>AB3664037</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -650,7 +650,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OP4831763</t>
+          <t>AB4032501</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,7 +679,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>RT5064894</t>
+          <t>RT9969857</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -708,7 +708,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>IR4606637</t>
+          <t>AB3494187</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -737,7 +737,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>HC1275249</t>
+          <t>RT8186525</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>HC4776602</t>
+          <t>AB8261721</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -795,7 +795,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>IR9509209</t>
+          <t>OP8895017</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>RT9816659</t>
+          <t>IR2099803</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>IR8894473</t>
+          <t>AB5735338</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>OP8890821</t>
+          <t>IR9062041</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -911,7 +911,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>IR6365864</t>
+          <t>AB3162424</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -940,7 +940,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>IR9468141</t>
+          <t>AB3535200</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -969,7 +969,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>AB7819714</t>
+          <t>HC3430540</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -998,7 +998,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>RT4919273</t>
+          <t>IR5714245</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>RT4170318</t>
+          <t>RT9899092</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HC3431746</t>
+          <t>RT9408401</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1081,7 +1081,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>OP1682352</t>
+          <t>AB1084009</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -1110,7 +1110,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>AB1373035</t>
+          <t>HC5214543</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -1139,7 +1139,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>HC3991373</t>
+          <t>HC3750780</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AB1558224</t>
+          <t>OP6142692</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1197,7 +1197,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>OP6585389</t>
+          <t>RT5234346</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>IR5256826</t>
+          <t>RT3501648</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1255,7 +1255,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>RT1433242</t>
+          <t>AB6960107</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1284,7 +1284,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HC7197295</t>
+          <t>HC1544647</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1313,7 +1313,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>RT6487376</t>
+          <t>IR1689046</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -1342,7 +1342,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>IR9257256</t>
+          <t>IR3995976</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -1371,7 +1371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>RT8702153</t>
+          <t>AB5362397</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -1400,7 +1400,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>IR1735606</t>
+          <t>RT2394419</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -1429,7 +1429,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>OP6243121</t>
+          <t>AB4443727</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -1458,7 +1458,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>OP5532987</t>
+          <t>IR7120413</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>OP5778681</t>
+          <t>OP4892535</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>IR3607381</t>
+          <t>HC3203556</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>OP5886228</t>
+          <t>RT2860323</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1574,7 +1574,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>OP2282929</t>
+          <t>AB6814259</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1603,7 +1603,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>HC9975768</t>
+          <t>IR1750297</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1632,7 +1632,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>HC1157887</t>
+          <t>AB6713446</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1661,7 +1661,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>IR3343776</t>
+          <t>RT2176201</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>HC4735363</t>
+          <t>OP4704450</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1719,7 +1719,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>AB2538858</t>
+          <t>HC3087183</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1748,7 +1748,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AB7501718</t>
+          <t>IR2004864</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>IR3344802</t>
+          <t>OP9113930</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1806,7 +1806,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AB5097376</t>
+          <t>OP5414574</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1835,7 +1835,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AB6938822</t>
+          <t>RT8876603</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1864,7 +1864,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AB3145927</t>
+          <t>AB5860849</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AB5098751</t>
+          <t>AB8201518</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1918,7 +1918,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>IR1196436</t>
+          <t>HC1984084</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1943,7 +1943,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>IR3305997</t>
+          <t>HC8995698</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1972,7 +1972,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>RT2147225</t>
+          <t>RT5657886</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>HC8968084</t>
+          <t>RT1902920</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>OP2815321</t>
+          <t>HC7021564</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
